--- a/design/db_column_names_table.xlsx
+++ b/design/db_column_names_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chan\Desktop\project\KT_Phone_Management\git\kt_phone_management\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55746FB5-BAE7-4586-B5F2-C3F2E46423CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C81FD9C-3D50-458C-B4DB-EC84B23B75CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F60D6803-516B-4487-A5B1-BB56F5BA5D77}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>데이터베이스 컬럼 명명 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매장 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,26 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자 등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,15 +308,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -336,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,19 +353,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,11 +692,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -811,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816AD259-CC42-4F43-875F-061CF2ABD1A4}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -821,11 +822,11 @@
     <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
@@ -833,40 +834,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -874,22 +875,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -897,22 +898,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -920,22 +921,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -943,16 +944,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -960,16 +961,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -977,16 +978,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -994,84 +995,87 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>37</v>
+      <c r="H18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/design/db_column_names_table.xlsx
+++ b/design/db_column_names_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chan\Desktop\project\KT_Phone_Management\git\kt_phone_management\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C81FD9C-3D50-458C-B4DB-EC84B23B75CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22BD63-F200-488E-9032-2AE26D546153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F60D6803-516B-4487-A5B1-BB56F5BA5D77}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
   <si>
     <t>데이터베이스 컬럼 명명 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,6 +254,314 @@
   </si>
   <si>
     <t>사업자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접미사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_sq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_gb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래그값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_amt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관, 계약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agrm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business registration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bisregi_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E183D304-EF42-4B33-A26A-E55BCA3CCC55}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,17 +992,29 @@
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -706,10 +1022,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -720,82 +1045,360 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +1416,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -835,16 +1438,16 @@
   <sheetData>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -852,230 +1455,235 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
